--- a/data/outputs/OR_altmetric/40.xlsx
+++ b/data/outputs/OR_altmetric/40.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE49"/>
+  <dimension ref="A1:CF49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1051,6 +1056,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1306,6 +1314,9 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1549,6 +1560,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1802,6 +1816,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2067,6 +2084,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2336,6 +2356,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2605,6 +2628,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2862,6 +2888,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3109,6 +3138,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3370,6 +3402,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3623,6 +3658,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3888,6 +3926,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4141,6 +4182,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4406,6 +4450,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4673,6 +4720,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4912,6 +4962,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5157,6 +5210,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5414,6 +5470,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5669,6 +5728,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5938,6 +6000,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6195,6 +6260,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6444,6 +6512,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6693,6 +6764,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6958,6 +7032,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7219,6 +7296,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7462,6 +7542,9 @@
         <v>0</v>
       </c>
       <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7717,6 +7800,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7984,6 +8070,9 @@
         <v>0</v>
       </c>
       <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8241,6 +8330,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8494,6 +8586,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8759,6 +8854,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9010,6 +9108,9 @@
         <v>0</v>
       </c>
       <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9265,6 +9366,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9522,6 +9626,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9769,6 +9876,9 @@
         <v>0</v>
       </c>
       <c r="CE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10024,6 +10134,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10277,6 +10390,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10526,6 +10642,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10771,6 +10890,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11022,6 +11144,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>3.05</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11275,6 +11400,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11538,6 +11666,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11793,6 +11924,9 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12032,6 +12166,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12299,6 +12436,9 @@
         <v>0</v>
       </c>
       <c r="CE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12538,6 +12678,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12787,6 +12930,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13032,6 +13178,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
